--- a/data/source/define content/Define.xlsx
+++ b/data/source/define content/Define.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aoliva/OneDrive/PhUSE/CDISCPilot/DefineContent/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ippei/develop/CTDasRDF/data/source/define content/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="DM" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="223">
   <si>
     <t>Variable </t>
   </si>
@@ -304,6 +304,7 @@
         <sz val="11"/>
         <color rgb="FF0433FF"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>suppdm.xpt </t>
     </r>
@@ -384,6 +385,7 @@
         <sz val="11"/>
         <color rgb="FF0433FF"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>vs.xpt </t>
     </r>
@@ -538,6 +540,7 @@
         <sz val="10"/>
         <color rgb="FF0433FF"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>COMPMETHOD.STUDY_DAY </t>
     </r>
@@ -609,6 +612,7 @@
         <sz val="11"/>
         <color rgb="FF0433FF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>dm.xpt </t>
@@ -761,17 +765,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF0433FF"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -792,6 +799,7 @@
       <sz val="10"/>
       <color rgb="FF0433FF"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -812,6 +820,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -819,6 +828,7 @@
       <sz val="11"/>
       <color rgb="FF0433FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -826,18 +836,21 @@
       <sz val="11"/>
       <color rgb="FF00B050"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF00B050"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -845,6 +858,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -868,12 +882,14 @@
       <sz val="11"/>
       <color rgb="FF7030A0"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF7030A0"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1202,7 +1218,7 @@
   <dimension ref="A1:H130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E21" sqref="E21:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1264,13 +1280,12 @@
       <c r="C3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="F3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="5"/>
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1283,13 +1298,12 @@
       <c r="C4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="E4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="F4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="5"/>
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1302,14 +1316,11 @@
       <c r="C5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="E5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="F5" s="11" t="s">
         <v>11</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>18</v>
       </c>
       <c r="G5" s="6"/>
     </row>
@@ -1323,13 +1334,12 @@
       <c r="C6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="E6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="F6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="5"/>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1526,14 +1536,13 @@
       <c r="C15" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="E15" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="F15" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="6"/>
+      <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
@@ -1545,16 +1554,15 @@
       <c r="C16" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="E16" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="F16" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="G16" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
@@ -1789,13 +1797,13 @@
       <c r="C27" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="E27" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="F27" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="G27" s="15" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2763,7 +2771,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:F26"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
